--- a/web/build-web/asset/i18n/common/translate.xlsx
+++ b/web/build-web/asset/i18n/common/translate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6760"/>
+    <workbookView windowWidth="28800" windowHeight="12430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="2180">
   <si>
     <t>en</t>
   </si>
@@ -6326,12 +6326,24 @@
     <t>Ripristina</t>
   </si>
   <si>
+    <t>Zurücksetzen</t>
+  </si>
+  <si>
     <t>Réinitialiser</t>
   </si>
   <si>
     <t>Сброс</t>
   </si>
   <si>
+    <t>다시 열림</t>
+  </si>
+  <si>
+    <t>リセット</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
     <t>move to home</t>
   </si>
   <si>
@@ -6341,12 +6353,24 @@
     <t>Muovi a casa</t>
   </si>
   <si>
+    <t>Zurück zur Startseite</t>
+  </si>
+  <si>
     <t>Passer à l'accueil</t>
   </si>
   <si>
     <t>Перейти в дом</t>
   </si>
   <si>
+    <t>집까지 이사함</t>
+  </si>
+  <si>
+    <t>家に移動</t>
+  </si>
+  <si>
+    <t>返回首頁</t>
+  </si>
+  <si>
     <t>move to origin</t>
   </si>
   <si>
@@ -6356,12 +6380,24 @@
     <t>Muovi a origine</t>
   </si>
   <si>
+    <t>Zurück zum Ausgangspunkt</t>
+  </si>
+  <si>
     <t>Passer à l'origine</t>
   </si>
   <si>
     <t>Перейти в начало</t>
   </si>
   <si>
+    <t>원점으로 이동함</t>
+  </si>
+  <si>
+    <t>原点に移動</t>
+  </si>
+  <si>
+    <t>移動到原點</t>
+  </si>
+  <si>
     <t>move to position</t>
   </si>
   <si>
@@ -6371,12 +6407,24 @@
     <t>Muovi alla posizione</t>
   </si>
   <si>
+    <t>in Position bewegen</t>
+  </si>
+  <si>
     <t>Passer à la position</t>
   </si>
   <si>
     <t>Перейти в положение</t>
   </si>
   <si>
+    <t>위치에 이동함</t>
+  </si>
+  <si>
+    <t>位置に移動</t>
+  </si>
+  <si>
+    <t>移動到位置</t>
+  </si>
+  <si>
     <t>set work origin</t>
   </si>
   <si>
@@ -6386,7 +6434,133 @@
     <t>Imposta l'origine del lavoro</t>
   </si>
   <si>
+    <t>Arbeitsursprung einstellen</t>
+  </si>
+  <si>
     <t>Régler l'origine du travail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 공작원점 설정</t>
+  </si>
+  <si>
+    <t>仕事の原点を設定します</t>
+  </si>
+  <si>
+    <t>停顿时间</t>
+  </si>
+  <si>
+    <t>Tiempo de pausa</t>
+  </si>
+  <si>
+    <t>Tempo di permanenza</t>
+  </si>
+  <si>
+    <t>Pausenzeit</t>
+  </si>
+  <si>
+    <t>Durée de pause</t>
+  </si>
+  <si>
+    <t>Время паузы</t>
+  </si>
+  <si>
+    <t>멈춘 시간</t>
+  </si>
+  <si>
+    <t>一時停止時間</t>
+  </si>
+  <si>
+    <t>停頓時間</t>
+  </si>
+  <si>
+    <t>Pause DexArm and wait before turning ON laser. It helps improve laser engraving quality. </t>
+  </si>
+  <si>
+    <t>在开启激光之前，暂停机械臂并等待一段时间。这个参数有助于提升激光雕刻的效果</t>
+  </si>
+  <si>
+    <t>Antes de encender el láser, pause el brazo robótico y espere un momento. Este parámetro ayuda a mejorar el efecto de tallado de láser.</t>
+  </si>
+  <si>
+    <t>Mettere in pausa il braccio e attendere un po' prima di accendere il laser. Questo parametro aiuta a migliorare l'effetto dell'incisione laser.</t>
+  </si>
+  <si>
+    <t>Halten Sie den Roboterarm an und warten Sie eine Weile bevor Sie den Laser einschalten. Mit Hilfe deses Parameteres verbessern den Effekt der Lasergravur.</t>
+  </si>
+  <si>
+    <t>Avant d'activer le laser, veuillez mettre le bras mécanique en pause et attendre un moment. Ce paramètre permet d'améliorer l'effet de la gravure laser.</t>
+  </si>
+  <si>
+    <t>Перед включением лазера остановить роботизированную руку и подождите. Этот параметр помогает улучшить эффект лазерной гравировки.</t>
+  </si>
+  <si>
+    <t>레이저를 열기 점에 기계암을 멈추고 한참 기다린다. 이 참고수치는 레이저조각의 효과를 향상시키는 데에 도움이 된다.</t>
+  </si>
+  <si>
+    <t>レーザーをオンにする前に、ロボットアームを一時停止し、しばらくお待ちください。このパラメーターは、レーザー彫刻の効果を向上させることができます。</t>
+  </si>
+  <si>
+    <t>在開啟鐳射之前，暫停機械臂並等待一段時間。這個參數有助於提升鐳射雕刻的效果</t>
+  </si>
+  <si>
+    <t>Engrave Time</t>
+  </si>
+  <si>
+    <t>雕刻时间</t>
+  </si>
+  <si>
+    <t>Tiempo de tallado</t>
+  </si>
+  <si>
+    <t>Tempo di intaglio</t>
+  </si>
+  <si>
+    <t>Gravurszeit</t>
+  </si>
+  <si>
+    <t>Durée de gravure</t>
+  </si>
+  <si>
+    <t>Время гравировки</t>
+  </si>
+  <si>
+    <t>조각시간</t>
+  </si>
+  <si>
+    <t>彫刻時間</t>
+  </si>
+  <si>
+    <t>雕刻時間</t>
+  </si>
+  <si>
+    <t>Determines how long the laser keeps on when it's engraving a dot. </t>
+  </si>
+  <si>
+    <t>决定了在雕刻一个点的时候，激光保持开启多长时间。</t>
+  </si>
+  <si>
+    <t>Determina cuánto tiempo permanece encendido el láser al tallar un punto.</t>
+  </si>
+  <si>
+    <t>Determina per quanto tempo il laser rimane acceso mentre scolpisce un punto.</t>
+  </si>
+  <si>
+    <t>Dies bestimmt, wie lange der Laser beim Gravieren eines Punktes eingeschaltet bleibt.</t>
+  </si>
+  <si>
+    <t>Détermine la durée pendant laquelle le laser reste allumé lors de la gravure d'un point.</t>
+  </si>
+  <si>
+    <t>Как долго лазер остается в точке гравировки.</t>
+  </si>
+  <si>
+    <t>한 점을 조각을 결정할 때 레이저가 여는 상태는 유지한 시간.</t>
+  </si>
+  <si>
+    <t>ポイントを彫刻することに決定したら、レーザーがどのぐらいオンにしますか。</t>
+  </si>
+  <si>
+    <t>決定了在雕刻一個點的時候，鐳射保持開啟多長時間。</t>
   </si>
 </sst>
 </file>
@@ -6399,8 +6573,14 @@
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6408,6 +6588,13 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6423,64 +6610,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6494,23 +6631,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6526,6 +6653,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6534,11 +6677,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6547,14 +6705,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6578,6 +6728,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -6588,7 +6776,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6600,61 +6902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6666,19 +6914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6690,19 +6926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6714,61 +6950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6791,15 +6979,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6810,32 +6989,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6852,6 +7005,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6879,167 +7041,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7048,18 +7239,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7404,82 +7599,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.9" customWidth="1"/>
     <col min="2" max="2" width="37.3" customWidth="1"/>
-    <col min="3" max="3" width="37.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.9" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.2" customWidth="1"/>
     <col min="5" max="5" width="39.9" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.2" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.2" style="3" customWidth="1"/>
     <col min="8" max="8" width="23.3" customWidth="1"/>
     <col min="9" max="9" width="20.7" customWidth="1"/>
     <col min="10" max="10" width="30.8" customWidth="1"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
@@ -7496,25 +7693,25 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
@@ -7531,25 +7728,25 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
@@ -7566,25 +7763,25 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
@@ -7601,25 +7798,25 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H6" t="s">
@@ -7636,25 +7833,25 @@
       </c>
     </row>
     <row r="7" ht="31" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H7" t="s">
@@ -7671,25 +7868,25 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H8" t="s">
@@ -7706,25 +7903,25 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H9" t="s">
@@ -7741,25 +7938,25 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H10" t="s">
@@ -7776,25 +7973,25 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
@@ -7811,25 +8008,25 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H12" t="s">
@@ -7846,25 +8043,25 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H13" t="s">
@@ -7881,25 +8078,25 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>130</v>
       </c>
       <c r="H14" t="s">
@@ -7916,25 +8113,25 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H15" t="s">
@@ -7951,25 +8148,25 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>149</v>
       </c>
       <c r="H16" t="s">
@@ -7986,25 +8183,25 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>159</v>
       </c>
       <c r="H17" t="s">
@@ -8021,25 +8218,25 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>168</v>
       </c>
       <c r="H18" t="s">
@@ -8056,25 +8253,25 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>177</v>
       </c>
       <c r="H19" t="s">
@@ -8091,25 +8288,25 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>186</v>
       </c>
       <c r="H20" t="s">
@@ -8126,25 +8323,25 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>196</v>
       </c>
       <c r="H21" t="s">
@@ -8161,25 +8358,25 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>205</v>
       </c>
       <c r="H22" t="s">
@@ -8196,25 +8393,25 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>215</v>
       </c>
       <c r="H23" t="s">
@@ -8231,25 +8428,25 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>225</v>
       </c>
       <c r="H24" t="s">
@@ -8266,25 +8463,25 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>235</v>
       </c>
       <c r="H25" t="s">
@@ -8301,25 +8498,25 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>243</v>
       </c>
       <c r="H26" t="s">
@@ -8336,25 +8533,25 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>248</v>
       </c>
       <c r="H27" t="s">
@@ -8371,25 +8568,25 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>257</v>
       </c>
       <c r="H28" t="s">
@@ -8406,25 +8603,25 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="3" t="s">
         <v>267</v>
       </c>
       <c r="H29" t="s">
@@ -8441,25 +8638,25 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H30" t="s">
@@ -8476,25 +8673,25 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>286</v>
       </c>
       <c r="H31" t="s">
@@ -8511,25 +8708,25 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>295</v>
       </c>
       <c r="H32" t="s">
@@ -8546,25 +8743,25 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="3" t="s">
         <v>305</v>
       </c>
       <c r="H33" t="s">
@@ -8581,25 +8778,25 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>312</v>
       </c>
       <c r="H34" t="s">
@@ -8616,25 +8813,25 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H35" t="s">
@@ -8651,25 +8848,25 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>330</v>
       </c>
       <c r="H36" t="s">
@@ -8686,25 +8883,25 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>339</v>
       </c>
       <c r="H37" t="s">
@@ -8721,25 +8918,25 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>349</v>
       </c>
       <c r="H38" t="s">
@@ -8756,25 +8953,25 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>358</v>
       </c>
       <c r="H39" t="s">
@@ -8791,25 +8988,25 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>366</v>
       </c>
       <c r="H40" t="s">
@@ -8826,25 +9023,25 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="3" t="s">
         <v>375</v>
       </c>
       <c r="H41" t="s">
@@ -8861,25 +9058,25 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="3" t="s">
         <v>385</v>
       </c>
       <c r="H42" t="s">
@@ -8896,25 +9093,25 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="3" t="s">
         <v>393</v>
       </c>
       <c r="H43" t="s">
@@ -8931,25 +9128,25 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>401</v>
       </c>
       <c r="H44" t="s">
@@ -8966,25 +9163,25 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>411</v>
       </c>
       <c r="H45" t="s">
@@ -9001,25 +9198,25 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="3" t="s">
         <v>421</v>
       </c>
       <c r="H46" t="s">
@@ -9036,25 +9233,25 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H47" t="s">
@@ -9071,25 +9268,25 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="3" t="s">
         <v>431</v>
       </c>
       <c r="H48" t="s">
@@ -9106,25 +9303,25 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>440</v>
       </c>
       <c r="H49" t="s">
@@ -9141,25 +9338,25 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>449</v>
       </c>
       <c r="H50" t="s">
@@ -9176,25 +9373,25 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>458</v>
       </c>
       <c r="H51" t="s">
@@ -9211,25 +9408,25 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>468</v>
       </c>
       <c r="H52" t="s">
@@ -9246,25 +9443,25 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>478</v>
       </c>
       <c r="H53" t="s">
@@ -9281,25 +9478,25 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>487</v>
       </c>
       <c r="H54" t="s">
@@ -9316,25 +9513,25 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>496</v>
       </c>
       <c r="H55" t="s">
@@ -9351,25 +9548,25 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>506</v>
       </c>
       <c r="H56" t="s">
@@ -9386,25 +9583,25 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>516</v>
       </c>
       <c r="H57" t="s">
@@ -9421,25 +9618,25 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>525</v>
       </c>
       <c r="H58" t="s">
@@ -9456,25 +9653,25 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>534</v>
       </c>
       <c r="H59" t="s">
@@ -9491,25 +9688,25 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>544</v>
       </c>
       <c r="H60" t="s">
@@ -9526,25 +9723,25 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>553</v>
       </c>
       <c r="H61" t="s">
@@ -9561,25 +9758,25 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>563</v>
       </c>
       <c r="H62" t="s">
@@ -9596,25 +9793,25 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>572</v>
       </c>
       <c r="H63" t="s">
@@ -9631,25 +9828,25 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>581</v>
       </c>
       <c r="H64" t="s">
@@ -9666,25 +9863,25 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>591</v>
       </c>
       <c r="H65" t="s">
@@ -9701,25 +9898,25 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>601</v>
       </c>
       <c r="H66" t="s">
@@ -9736,25 +9933,25 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>611</v>
       </c>
       <c r="H67" t="s">
@@ -9771,25 +9968,25 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>618</v>
       </c>
       <c r="H68" t="s">
@@ -9806,25 +10003,25 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>627</v>
       </c>
       <c r="H69" t="s">
@@ -9841,25 +10038,25 @@
       </c>
     </row>
     <row r="70" ht="30" spans="1:11">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H70" t="s">
@@ -9876,25 +10073,25 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>646</v>
       </c>
       <c r="H71" t="s">
@@ -9911,25 +10108,25 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="3" t="s">
         <v>652</v>
       </c>
       <c r="H72" t="s">
@@ -9946,25 +10143,25 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="3" t="s">
         <v>659</v>
       </c>
       <c r="H73" t="s">
@@ -9981,25 +10178,25 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="3" t="s">
         <v>667</v>
       </c>
       <c r="H74" t="s">
@@ -10016,25 +10213,25 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="3" t="s">
         <v>677</v>
       </c>
       <c r="H75" t="s">
@@ -10051,25 +10248,25 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="3" t="s">
         <v>687</v>
       </c>
       <c r="H76" t="s">
@@ -10086,25 +10283,25 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>697</v>
       </c>
       <c r="H77" t="s">
@@ -10121,25 +10318,25 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="3" t="s">
         <v>707</v>
       </c>
       <c r="H78" t="s">
@@ -10156,25 +10353,25 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="3" t="s">
         <v>717</v>
       </c>
       <c r="H79" t="s">
@@ -10191,25 +10388,25 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="3" t="s">
         <v>727</v>
       </c>
       <c r="H80" t="s">
@@ -10226,25 +10423,25 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>737</v>
       </c>
       <c r="H81" t="s">
@@ -10261,25 +10458,25 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="3" t="s">
         <v>747</v>
       </c>
       <c r="H82" t="s">
@@ -10296,25 +10493,25 @@
       </c>
     </row>
     <row r="83" ht="45" spans="1:11">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
         <v>756</v>
       </c>
       <c r="H83" t="s">
@@ -10331,25 +10528,25 @@
       </c>
     </row>
     <row r="84" ht="62" spans="1:11">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="3" t="s">
         <v>766</v>
       </c>
       <c r="H84" t="s">
@@ -10366,25 +10563,25 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="3" t="s">
         <v>776</v>
       </c>
       <c r="H85" t="s">
@@ -10401,25 +10598,25 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
         <v>785</v>
       </c>
       <c r="H86" t="s">
@@ -10436,25 +10633,25 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="3" t="s">
         <v>794</v>
       </c>
       <c r="H87" t="s">
@@ -10471,25 +10668,25 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="3" t="s">
         <v>803</v>
       </c>
       <c r="H88" t="s">
@@ -10506,25 +10703,25 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
         <v>813</v>
       </c>
       <c r="H89" t="s">
@@ -10541,25 +10738,25 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="3" t="s">
         <v>822</v>
       </c>
       <c r="H90" t="s">
@@ -10576,25 +10773,25 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="3" t="s">
         <v>830</v>
       </c>
       <c r="H91" t="s">
@@ -10611,25 +10808,25 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="3" t="s">
         <v>839</v>
       </c>
       <c r="H92" t="s">
@@ -10646,25 +10843,25 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="3" t="s">
         <v>849</v>
       </c>
       <c r="H93" t="s">
@@ -10681,25 +10878,25 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="3" t="s">
         <v>858</v>
       </c>
       <c r="H94" t="s">
@@ -10716,25 +10913,25 @@
       </c>
     </row>
     <row r="95" ht="31" spans="1:11">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="3" t="s">
         <v>868</v>
       </c>
       <c r="H95" t="s">
@@ -10751,25 +10948,25 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="3" t="s">
         <v>878</v>
       </c>
       <c r="H96" t="s">
@@ -10786,25 +10983,25 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="3" t="s">
         <v>882</v>
       </c>
       <c r="H97" t="s">
@@ -10821,25 +11018,25 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="3" t="s">
         <v>887</v>
       </c>
       <c r="H98" t="s">
@@ -10856,25 +11053,25 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="3" t="s">
         <v>897</v>
       </c>
       <c r="H99" t="s">
@@ -10891,25 +11088,25 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="3" t="s">
         <v>906</v>
       </c>
       <c r="H100" t="s">
@@ -10926,25 +11123,25 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="3" t="s">
         <v>916</v>
       </c>
       <c r="H101" t="s">
@@ -10961,25 +11158,25 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="3" t="s">
         <v>926</v>
       </c>
       <c r="H102" t="s">
@@ -10996,25 +11193,25 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="3" t="s">
         <v>936</v>
       </c>
       <c r="H103" t="s">
@@ -11031,25 +11228,25 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="3" t="s">
         <v>944</v>
       </c>
       <c r="H104" t="s">
@@ -11066,25 +11263,25 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="3" t="s">
         <v>953</v>
       </c>
       <c r="H105" t="s">
@@ -11101,25 +11298,25 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="3" t="s">
         <v>963</v>
       </c>
       <c r="H106" t="s">
@@ -11136,25 +11333,25 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="3" t="s">
         <v>973</v>
       </c>
       <c r="H107" t="s">
@@ -11171,25 +11368,25 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="3" t="s">
         <v>982</v>
       </c>
       <c r="H108" t="s">
@@ -11206,25 +11403,25 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="3" t="s">
         <v>992</v>
       </c>
       <c r="H109" t="s">
@@ -11241,25 +11438,25 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="3" t="s">
         <v>458</v>
       </c>
       <c r="H110" t="s">
@@ -11276,25 +11473,25 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="3" t="s">
         <v>1002</v>
       </c>
       <c r="H111" t="s">
@@ -11311,25 +11508,25 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H112" t="s">
@@ -11346,25 +11543,25 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="H113" t="s">
@@ -11381,25 +11578,25 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="H114" t="s">
@@ -11416,25 +11613,25 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="3" t="s">
         <v>1028</v>
       </c>
       <c r="H115" t="s">
@@ -11451,25 +11648,25 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="3" t="s">
         <v>1037</v>
       </c>
       <c r="H116" t="s">
@@ -11486,25 +11683,25 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="H117" t="s">
@@ -11521,25 +11718,25 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="H118" t="s">
@@ -11556,25 +11753,25 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="H119" t="s">
@@ -11591,25 +11788,25 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="H120" t="s">
@@ -11626,25 +11823,25 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="3" t="s">
         <v>1081</v>
       </c>
       <c r="H121" t="s">
@@ -11661,25 +11858,25 @@
       </c>
     </row>
     <row r="122" ht="90" spans="1:11">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="3" t="s">
         <v>1091</v>
       </c>
       <c r="H122" t="s">
@@ -11696,25 +11893,25 @@
       </c>
     </row>
     <row r="123" ht="75" spans="1:11">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="H123" t="s">
@@ -11731,25 +11928,25 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="3" t="s">
         <v>1111</v>
       </c>
       <c r="H124" t="s">
@@ -11766,25 +11963,25 @@
       </c>
     </row>
     <row r="125" ht="31" spans="1:11">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="3" t="s">
         <v>1121</v>
       </c>
       <c r="H125" t="s">
@@ -11801,25 +11998,25 @@
       </c>
     </row>
     <row r="126" ht="90" spans="1:11">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="3" t="s">
         <v>1131</v>
       </c>
       <c r="H126" t="s">
@@ -11836,25 +12033,25 @@
       </c>
     </row>
     <row r="127" ht="31" spans="1:11">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="H127" t="s">
@@ -11871,25 +12068,25 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="H128" t="s">
@@ -11906,25 +12103,25 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="H129" t="s">
@@ -11941,25 +12138,25 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="3" t="s">
         <v>1169</v>
       </c>
       <c r="H130" t="s">
@@ -11976,25 +12173,25 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="3" t="s">
         <v>1178</v>
       </c>
       <c r="H131" t="s">
@@ -12011,25 +12208,25 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="8" t="s">
         <v>1183</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="3" t="s">
         <v>1187</v>
       </c>
       <c r="H132" t="s">
@@ -12046,25 +12243,25 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="H133" t="s">
@@ -12081,25 +12278,25 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="8" t="s">
         <v>1201</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="H134" t="s">
@@ -12116,25 +12313,25 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>1210</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="3" t="s">
         <v>1214</v>
       </c>
       <c r="H135" t="s">
@@ -12151,25 +12348,25 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="3" t="s">
         <v>130</v>
       </c>
       <c r="H136" t="s">
@@ -12186,25 +12383,25 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="H137" t="s">
@@ -12221,25 +12418,25 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="H138" t="s">
@@ -12256,25 +12453,25 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="3" t="s">
         <v>458</v>
       </c>
       <c r="H139" t="s">
@@ -12291,25 +12488,25 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="3" t="s">
         <v>1241</v>
       </c>
       <c r="H140" t="s">
@@ -12326,25 +12523,25 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H141" t="s">
@@ -12361,25 +12558,25 @@
       </c>
     </row>
     <row r="142" ht="45" spans="1:11">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="3" t="s">
         <v>1252</v>
       </c>
       <c r="H142" t="s">
@@ -12396,25 +12593,25 @@
       </c>
     </row>
     <row r="143" ht="45" spans="1:11">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="8" t="s">
         <v>1258</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="3" t="s">
         <v>1262</v>
       </c>
       <c r="H143" t="s">
@@ -12431,25 +12628,25 @@
       </c>
     </row>
     <row r="144" ht="45" spans="1:11">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="3" t="s">
         <v>1272</v>
       </c>
       <c r="H144" t="s">
@@ -12466,25 +12663,25 @@
       </c>
     </row>
     <row r="145" ht="120" spans="1:11">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="8" t="s">
         <v>1278</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" s="3" t="s">
         <v>1282</v>
       </c>
       <c r="H145" t="s">
@@ -12501,25 +12698,25 @@
       </c>
     </row>
     <row r="146" ht="45" spans="1:11">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="3" t="s">
         <v>1292</v>
       </c>
       <c r="H146" t="s">
@@ -12536,25 +12733,25 @@
       </c>
     </row>
     <row r="147" ht="45" spans="1:11">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="3" t="s">
         <v>1302</v>
       </c>
       <c r="H147" t="s">
@@ -12571,25 +12768,25 @@
       </c>
     </row>
     <row r="148" ht="105" spans="1:11">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="3" t="s">
         <v>1312</v>
       </c>
       <c r="H148" t="s">
@@ -12606,25 +12803,25 @@
       </c>
     </row>
     <row r="149" ht="30" spans="1:11">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="8" t="s">
         <v>1318</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="3" t="s">
         <v>1322</v>
       </c>
       <c r="H149" t="s">
@@ -12641,25 +12838,25 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="8" t="s">
         <v>1328</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" s="3" t="s">
         <v>1332</v>
       </c>
       <c r="H150" t="s">
@@ -12676,25 +12873,25 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="8" t="s">
         <v>1338</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H151" t="s">
@@ -12711,25 +12908,25 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="7" t="s">
         <v>1347</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="8" t="s">
         <v>1348</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F152" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="H152" t="s">
@@ -12746,25 +12943,25 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="8" t="s">
         <v>1358</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="3" t="s">
         <v>1362</v>
       </c>
       <c r="H153" t="s">
@@ -12781,25 +12978,25 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="8" t="s">
         <v>1368</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" s="3" t="s">
         <v>1372</v>
       </c>
       <c r="H154" t="s">
@@ -12816,25 +13013,25 @@
       </c>
     </row>
     <row r="155" ht="45" spans="1:11">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="8" t="s">
         <v>1378</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" s="3" t="s">
         <v>1382</v>
       </c>
       <c r="H155" t="s">
@@ -12851,25 +13048,25 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="8" t="s">
         <v>1388</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>1389</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="3" t="s">
         <v>1392</v>
       </c>
       <c r="H156" t="s">
@@ -12886,25 +13083,25 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>1399</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F157" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="3" t="s">
         <v>1401</v>
       </c>
       <c r="H157" t="s">
@@ -12921,25 +13118,25 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="7" t="s">
         <v>1405</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="8" t="s">
         <v>1407</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F158" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G158" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="H158" t="s">
@@ -12956,25 +13153,25 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="7" t="s">
         <v>1415</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="H159" t="s">
@@ -12991,25 +13188,25 @@
       </c>
     </row>
     <row r="160" ht="45" spans="1:11">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="7" t="s">
         <v>1425</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="8" t="s">
         <v>1427</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F160" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G160" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="H160" t="s">
@@ -13026,25 +13223,25 @@
       </c>
     </row>
     <row r="161" ht="45" spans="1:11">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="3" t="s">
         <v>1441</v>
       </c>
       <c r="H161" t="s">
@@ -13061,25 +13258,25 @@
       </c>
     </row>
     <row r="162" ht="45" spans="1:11">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="7" t="s">
         <v>1446</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="8" t="s">
         <v>1447</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="3" t="s">
         <v>1448</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="H162" t="s">
@@ -13096,25 +13293,25 @@
       </c>
     </row>
     <row r="163" ht="30" spans="1:11">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="8" t="s">
         <v>1457</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="H163" t="s">
@@ -13131,25 +13328,25 @@
       </c>
     </row>
     <row r="164" ht="45" spans="1:11">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="3" t="s">
         <v>1471</v>
       </c>
       <c r="H164" t="s">
@@ -13166,25 +13363,25 @@
       </c>
     </row>
     <row r="165" ht="45" spans="1:11">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="8" t="s">
         <v>1477</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3" t="s">
         <v>1478</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F165" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="3" t="s">
         <v>1481</v>
       </c>
       <c r="H165" t="s">
@@ -13201,25 +13398,25 @@
       </c>
     </row>
     <row r="166" ht="75" spans="1:11">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>1488</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F166" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="3" t="s">
         <v>1491</v>
       </c>
       <c r="H166" t="s">
@@ -13236,25 +13433,25 @@
       </c>
     </row>
     <row r="167" ht="31" spans="1:11">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="8" t="s">
         <v>1497</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>1498</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="F167" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" s="3" t="s">
         <v>1501</v>
       </c>
       <c r="H167" t="s">
@@ -13271,25 +13468,25 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="7" t="s">
         <v>1506</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="3" t="s">
         <v>1508</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F168" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="3" t="s">
         <v>1511</v>
       </c>
       <c r="H168" t="s">
@@ -13306,25 +13503,25 @@
       </c>
     </row>
     <row r="169" ht="60" spans="1:11">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="7" t="s">
         <v>1515</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="8" t="s">
         <v>1517</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F169" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="3" t="s">
         <v>1521</v>
       </c>
       <c r="H169" t="s">
@@ -13341,25 +13538,25 @@
       </c>
     </row>
     <row r="170" ht="30" spans="1:11">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="8" t="s">
         <v>1527</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="3" t="s">
         <v>1529</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F170" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G170" s="3" t="s">
         <v>1531</v>
       </c>
       <c r="H170" t="s">
@@ -13376,25 +13573,25 @@
       </c>
     </row>
     <row r="171" ht="45" spans="1:11">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>1538</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F171" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="3" t="s">
         <v>1541</v>
       </c>
       <c r="H171" t="s">
@@ -13411,25 +13608,25 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="7" t="s">
         <v>1545</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="8" t="s">
         <v>1547</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F172" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G172" s="3" t="s">
         <v>1551</v>
       </c>
       <c r="H172" t="s">
@@ -13446,25 +13643,25 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="7" t="s">
         <v>1555</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="7" t="s">
         <v>1556</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="3" t="s">
         <v>1558</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F173" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="H173" t="s">
@@ -13481,25 +13678,25 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="7" t="s">
         <v>1565</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="7" t="s">
         <v>1566</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="3" t="s">
         <v>1569</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F174" s="3" t="s">
         <v>1570</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G174" s="3" t="s">
         <v>1571</v>
       </c>
       <c r="H174" t="s">
@@ -13516,25 +13713,25 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="7" t="s">
         <v>1574</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="7" t="s">
         <v>1575</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="8" t="s">
         <v>1576</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>1577</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>1578</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F175" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G175" s="3" t="s">
         <v>1580</v>
       </c>
       <c r="H175" t="s">
@@ -13551,25 +13748,25 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="7" t="s">
         <v>1583</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>1586</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F176" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" s="3" t="s">
         <v>1588</v>
       </c>
       <c r="H176" t="s">
@@ -13586,25 +13783,25 @@
       </c>
     </row>
     <row r="177" ht="30" spans="1:11">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="8" t="s">
         <v>1594</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="3" t="s">
         <v>1596</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" s="3" t="s">
         <v>1598</v>
       </c>
       <c r="H177" t="s">
@@ -13621,25 +13818,25 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="7" t="s">
         <v>1602</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="7" t="s">
         <v>1603</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="3" t="s">
         <v>1605</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F178" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="3" t="s">
         <v>1608</v>
       </c>
       <c r="H178" t="s">
@@ -13656,25 +13853,25 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="7" t="s">
         <v>1612</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="7" t="s">
         <v>1613</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F179" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" s="3" t="s">
         <v>1618</v>
       </c>
       <c r="H179" t="s">
@@ -13691,25 +13888,25 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="8" t="s">
         <v>1624</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F180" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" s="3" t="s">
         <v>1628</v>
       </c>
       <c r="H180" t="s">
@@ -13726,25 +13923,25 @@
       </c>
     </row>
     <row r="181" ht="30" spans="1:11">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="7" t="s">
         <v>1632</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="7" t="s">
         <v>1633</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="3" t="s">
         <v>1636</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" s="3" t="s">
         <v>1637</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="3" t="s">
         <v>1638</v>
       </c>
       <c r="H181" t="s">
@@ -13761,25 +13958,25 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="8" t="s">
         <v>1644</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F182" s="3" t="s">
         <v>1647</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G182" s="3" t="s">
         <v>1648</v>
       </c>
       <c r="H182" t="s">
@@ -13796,25 +13993,25 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="7" t="s">
         <v>1652</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="7" t="s">
         <v>1653</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="8" t="s">
         <v>1654</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="3" t="s">
         <v>1655</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F183" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G183" s="3" t="s">
         <v>1658</v>
       </c>
       <c r="H183" t="s">
@@ -13831,25 +14028,25 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="7" t="s">
         <v>1662</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="7" t="s">
         <v>1663</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="8" t="s">
         <v>1664</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="3" t="s">
         <v>1665</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>1666</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="F184" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="G184" s="3" t="s">
         <v>1668</v>
       </c>
       <c r="H184" t="s">
@@ -13866,25 +14063,25 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="7" t="s">
         <v>1672</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="7" t="s">
         <v>1673</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="8" t="s">
         <v>1674</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="3" t="s">
         <v>1675</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="F185" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="G185" s="3" t="s">
         <v>1678</v>
       </c>
       <c r="H185" t="s">
@@ -13901,25 +14098,25 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="7" t="s">
         <v>1682</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="7" t="s">
         <v>1683</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F186" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G186" s="3" t="s">
         <v>1688</v>
       </c>
       <c r="H186" t="s">
@@ -13936,25 +14133,25 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="7" t="s">
         <v>1692</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="8" t="s">
         <v>1694</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="3" t="s">
         <v>1696</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G187" s="3" t="s">
         <v>1698</v>
       </c>
       <c r="H187" t="s">
@@ -13971,25 +14168,25 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="7" t="s">
         <v>1702</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="7" t="s">
         <v>1703</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="8" t="s">
         <v>1704</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>1705</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F188" s="3" t="s">
         <v>1707</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G188" s="3" t="s">
         <v>1708</v>
       </c>
       <c r="H188" t="s">
@@ -14006,25 +14203,25 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="7" t="s">
         <v>1712</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="7" t="s">
         <v>1713</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="8" t="s">
         <v>1714</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>1716</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="F189" s="3" t="s">
         <v>1717</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="G189" s="3" t="s">
         <v>1718</v>
       </c>
       <c r="H189" t="s">
@@ -14041,25 +14238,25 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="7" t="s">
         <v>1722</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="7" t="s">
         <v>1723</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="8" t="s">
         <v>1724</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F190" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G190" s="3" t="s">
         <v>1728</v>
       </c>
       <c r="H190" t="s">
@@ -14076,25 +14273,25 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="7" t="s">
         <v>1732</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="7" t="s">
         <v>1733</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="8" t="s">
         <v>1734</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F191" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G191" s="3" t="s">
         <v>1738</v>
       </c>
       <c r="H191" t="s">
@@ -14111,25 +14308,25 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="7" t="s">
         <v>1742</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="7" t="s">
         <v>1743</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="8" t="s">
         <v>1744</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="3" t="s">
         <v>1746</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="F192" s="3" t="s">
         <v>1747</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="G192" s="3" t="s">
         <v>1748</v>
       </c>
       <c r="H192" t="s">
@@ -14146,25 +14343,25 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="7" t="s">
         <v>1752</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="7" t="s">
         <v>1753</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="8" t="s">
         <v>1754</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>1755</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>1756</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="F193" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G193" s="3" t="s">
         <v>1758</v>
       </c>
       <c r="H193" t="s">
@@ -14181,25 +14378,25 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="7" t="s">
         <v>1762</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="8" t="s">
         <v>1764</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="F194" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="G194" s="2" t="s">
+      <c r="G194" s="3" t="s">
         <v>1768</v>
       </c>
       <c r="H194" t="s">
@@ -14216,25 +14413,25 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="7" t="s">
         <v>1772</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="8" t="s">
         <v>1774</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="F195" s="3" t="s">
         <v>1777</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G195" s="3" t="s">
         <v>1778</v>
       </c>
       <c r="H195" t="s">
@@ -14251,25 +14448,25 @@
       </c>
     </row>
     <row r="196" ht="30" spans="1:11">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="7" t="s">
         <v>1782</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="7" t="s">
         <v>1783</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="8" t="s">
         <v>1784</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F196" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="G196" s="3" t="s">
         <v>1788</v>
       </c>
       <c r="H196" t="s">
@@ -14286,25 +14483,25 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="7" t="s">
         <v>1792</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="7" t="s">
         <v>1793</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="8" t="s">
         <v>1794</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="3" t="s">
         <v>1795</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="3" t="s">
         <v>1796</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="F197" s="3" t="s">
         <v>1797</v>
       </c>
-      <c r="G197" s="2" t="s">
+      <c r="G197" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="H197" t="s">
@@ -14321,25 +14518,25 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="7" t="s">
         <v>1802</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="7" t="s">
         <v>1803</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="8" t="s">
         <v>1804</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="3" t="s">
         <v>1805</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="3" t="s">
         <v>1806</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F198" s="3" t="s">
         <v>1807</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="G198" s="3" t="s">
         <v>1808</v>
       </c>
       <c r="H198" t="s">
@@ -14356,25 +14553,25 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="7" t="s">
         <v>1812</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="7" t="s">
         <v>1813</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="8" t="s">
         <v>1814</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="3" t="s">
         <v>1815</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="3" t="s">
         <v>1816</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F199" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="G199" s="3" t="s">
         <v>1818</v>
       </c>
       <c r="H199" t="s">
@@ -14391,25 +14588,25 @@
       </c>
     </row>
     <row r="200" ht="31" spans="1:11">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="7" t="s">
         <v>1821</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="7" t="s">
         <v>1822</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="8" t="s">
         <v>1823</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="3" t="s">
         <v>1825</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="G200" s="3" t="s">
         <v>1827</v>
       </c>
       <c r="H200" t="s">
@@ -14426,25 +14623,25 @@
       </c>
     </row>
     <row r="201" ht="31" spans="1:11">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="7" t="s">
         <v>1831</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="7" t="s">
         <v>1832</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="8" t="s">
         <v>1833</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>1834</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F201" s="3" t="s">
         <v>1836</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" s="3" t="s">
         <v>1837</v>
       </c>
       <c r="H201" t="s">
@@ -14461,25 +14658,25 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="7" t="s">
         <v>1841</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="7" t="s">
         <v>1842</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="8" t="s">
         <v>1843</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>1845</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="F202" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" s="3" t="s">
         <v>1847</v>
       </c>
       <c r="H202" t="s">
@@ -14496,25 +14693,25 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="7" t="s">
         <v>1851</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="7" t="s">
         <v>1852</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="8" t="s">
         <v>1853</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="F203" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="G203" s="3" t="s">
         <v>1857</v>
       </c>
       <c r="H203" t="s">
@@ -14531,25 +14728,25 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="7" t="s">
         <v>1861</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="7" t="s">
         <v>1862</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="8" t="s">
         <v>1863</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="3" t="s">
         <v>1865</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="F204" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="G204" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="H204" t="s">
@@ -14566,25 +14763,25 @@
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="7" t="s">
         <v>1871</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="7" t="s">
         <v>1872</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="8" t="s">
         <v>1873</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="3" t="s">
         <v>1874</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="3" t="s">
         <v>1875</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="F205" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="G205" s="3" t="s">
         <v>1877</v>
       </c>
       <c r="H205" t="s">
@@ -14601,25 +14798,25 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="7" t="s">
         <v>1880</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="7" t="s">
         <v>1881</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="8" t="s">
         <v>1882</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="F206" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="G206" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="H206" t="s">
@@ -14636,25 +14833,25 @@
       </c>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="7" t="s">
         <v>1890</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="7" t="s">
         <v>1891</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="8" t="s">
         <v>1892</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="3" t="s">
         <v>1893</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F207" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="G207" s="2" t="s">
+      <c r="G207" s="3" t="s">
         <v>1896</v>
       </c>
       <c r="H207" t="s">
@@ -14671,25 +14868,25 @@
       </c>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="7" t="s">
         <v>1900</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="7" t="s">
         <v>1901</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" s="8" t="s">
         <v>1902</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F208" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" s="3" t="s">
         <v>1906</v>
       </c>
       <c r="H208" t="s">
@@ -14706,25 +14903,25 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="7" t="s">
         <v>1910</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="7" t="s">
         <v>1911</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="8" t="s">
         <v>1912</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="3" t="s">
         <v>1913</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F209" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="G209" s="2" t="s">
+      <c r="G209" s="3" t="s">
         <v>1916</v>
       </c>
       <c r="H209" t="s">
@@ -14741,25 +14938,25 @@
       </c>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="7" t="s">
         <v>1920</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="7" t="s">
         <v>1921</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="8" t="s">
         <v>1922</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="3" t="s">
         <v>1924</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F210" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="G210" s="2" t="s">
+      <c r="G210" s="3" t="s">
         <v>1926</v>
       </c>
       <c r="H210" t="s">
@@ -14776,25 +14973,25 @@
       </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="7" t="s">
         <v>1930</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="7" t="s">
         <v>1931</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="8" t="s">
         <v>1932</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="3" t="s">
         <v>1933</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="3" t="s">
         <v>1934</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="F211" s="3" t="s">
         <v>1935</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G211" s="3" t="s">
         <v>1936</v>
       </c>
       <c r="H211" t="s">
@@ -14811,25 +15008,25 @@
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="7" t="s">
         <v>1940</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="7" t="s">
         <v>1941</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="8" t="s">
         <v>1942</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="3" t="s">
         <v>1943</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F212" s="3" t="s">
         <v>1944</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="G212" s="3" t="s">
         <v>1945</v>
       </c>
       <c r="H212" t="s">
@@ -14846,25 +15043,25 @@
       </c>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="7" t="s">
         <v>1948</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="7" t="s">
         <v>1949</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="8" t="s">
         <v>1950</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="F213" s="3" t="s">
         <v>1952</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="G213" s="3" t="s">
         <v>1953</v>
       </c>
       <c r="H213" t="s">
@@ -14881,25 +15078,25 @@
       </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="7" t="s">
         <v>1957</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="7" t="s">
         <v>1958</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="8" t="s">
         <v>1959</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="3" t="s">
         <v>1960</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F214" s="2" t="s">
+      <c r="F214" s="3" t="s">
         <v>1961</v>
       </c>
-      <c r="G214" s="2" t="s">
+      <c r="G214" s="3" t="s">
         <v>1962</v>
       </c>
       <c r="H214" t="s">
@@ -14916,25 +15113,25 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="7" t="s">
         <v>1966</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="7" t="s">
         <v>1967</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="8" t="s">
         <v>1968</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="3" t="s">
         <v>1969</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="3" t="s">
         <v>1970</v>
       </c>
-      <c r="F215" s="2" t="s">
+      <c r="F215" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="G215" s="3" t="s">
         <v>1972</v>
       </c>
       <c r="H215" t="s">
@@ -14951,25 +15148,25 @@
       </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="7" t="s">
         <v>1976</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="8" t="s">
         <v>1977</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="G216" s="3" t="s">
         <v>1980</v>
       </c>
       <c r="H216" t="s">
@@ -14986,25 +15183,25 @@
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="7" t="s">
         <v>1983</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="7" t="s">
         <v>1984</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="8" t="s">
         <v>1985</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F217" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="G217" s="3" t="s">
         <v>1989</v>
       </c>
       <c r="H217" t="s">
@@ -15021,25 +15218,25 @@
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="7" t="s">
         <v>1993</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="7" t="s">
         <v>1994</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="8" t="s">
         <v>1995</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E218" s="3" t="s">
         <v>1997</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F218" s="3" t="s">
         <v>1998</v>
       </c>
-      <c r="G218" s="2" t="s">
+      <c r="G218" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="H218" t="s">
@@ -15056,25 +15253,25 @@
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="7" t="s">
         <v>2002</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="7" t="s">
         <v>2003</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="8" t="s">
         <v>2004</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="3" t="s">
         <v>2006</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="F219" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="G219" s="2" t="s">
+      <c r="G219" s="3" t="s">
         <v>2008</v>
       </c>
       <c r="H219" t="s">
@@ -15091,25 +15288,25 @@
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="7" t="s">
         <v>2011</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="7" t="s">
         <v>2012</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="8" t="s">
         <v>2013</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="3" t="s">
         <v>2014</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="F220" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="G220" s="2" t="s">
+      <c r="G220" s="3" t="s">
         <v>2017</v>
       </c>
       <c r="H220" t="s">
@@ -15126,25 +15323,25 @@
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="7" t="s">
         <v>2021</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="7" t="s">
         <v>2022</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="8" t="s">
         <v>2023</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="3" t="s">
         <v>2025</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F221" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="G221" s="3" t="s">
         <v>2026</v>
       </c>
       <c r="H221" t="s">
@@ -15161,25 +15358,25 @@
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="7" t="s">
         <v>2030</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="7" t="s">
         <v>2031</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="8" t="s">
         <v>2032</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="F222" s="3" t="s">
         <v>2033</v>
       </c>
-      <c r="G222" s="2" t="s">
+      <c r="G222" s="3" t="s">
         <v>2034</v>
       </c>
       <c r="H222" t="s">
@@ -15196,25 +15393,25 @@
       </c>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="7" t="s">
         <v>2037</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="8" t="s">
         <v>2039</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="3" t="s">
         <v>2040</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="3" t="s">
         <v>2041</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F223" s="3" t="s">
         <v>2042</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="G223" s="3" t="s">
         <v>2043</v>
       </c>
       <c r="H223" t="s">
@@ -15231,25 +15428,25 @@
       </c>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="7" t="s">
         <v>2047</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="8" t="s">
         <v>2049</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="3" t="s">
         <v>2050</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="3" t="s">
         <v>2051</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F224" s="3" t="s">
         <v>2052</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" s="3" t="s">
         <v>2053</v>
       </c>
       <c r="H224" t="s">
@@ -15266,25 +15463,25 @@
       </c>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="8" t="s">
         <v>2057</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="F225" s="3" t="s">
         <v>2058</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="G225" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="H225" t="s">
@@ -15301,25 +15498,25 @@
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="7" t="s">
         <v>2060</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="7" t="s">
         <v>2060</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="8" t="s">
         <v>2060</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="F226" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="G226" s="2" t="s">
+      <c r="G226" s="3" t="s">
         <v>2060</v>
       </c>
       <c r="H226" t="s">
@@ -15336,25 +15533,25 @@
       </c>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="7" t="s">
         <v>2061</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="7" t="s">
         <v>2062</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="8" t="s">
         <v>2063</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="F227" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="G227" s="3" t="s">
         <v>2067</v>
       </c>
       <c r="H227" t="s">
@@ -15371,25 +15568,25 @@
       </c>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="7" t="s">
         <v>2071</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="7" t="s">
         <v>2072</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="8" t="s">
         <v>2073</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="3" t="s">
         <v>2074</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="3" t="s">
         <v>2075</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="F228" s="3" t="s">
         <v>2076</v>
       </c>
-      <c r="G228" s="2" t="s">
+      <c r="G228" s="3" t="s">
         <v>2077</v>
       </c>
       <c r="H228" t="s">
@@ -15406,25 +15603,25 @@
       </c>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="7" t="s">
         <v>2080</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="7" t="s">
         <v>2081</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="8" t="s">
         <v>2082</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="3" t="s">
         <v>2083</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="3" t="s">
         <v>2084</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="F229" s="3" t="s">
         <v>2085</v>
       </c>
-      <c r="G229" s="2" t="s">
+      <c r="G229" s="3" t="s">
         <v>2086</v>
       </c>
       <c r="H229" t="s">
@@ -15441,25 +15638,25 @@
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="7" t="s">
         <v>2089</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="7" t="s">
         <v>2090</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="8" t="s">
         <v>2091</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="3" t="s">
         <v>2092</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="3" t="s">
         <v>2093</v>
       </c>
-      <c r="F230" s="2" t="s">
+      <c r="F230" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="G230" s="2" t="s">
+      <c r="G230" s="3" t="s">
         <v>2095</v>
       </c>
       <c r="H230" t="s">
@@ -15476,184 +15673,322 @@
       </c>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="7" t="s">
         <v>2098</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="7" t="s">
         <v>2098</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="8" t="s">
         <v>2099</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="3" t="s">
         <v>2100</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F231" s="2" t="s">
+      <c r="E231" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="F231" s="3" t="s">
         <v>2102</v>
       </c>
+      <c r="G231" s="3" t="s">
+        <v>2103</v>
+      </c>
       <c r="H231" t="s">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="I231" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="J231" t="s">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="K231" t="s">
-        <v>2098</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="3" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>2103</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G232" s="2" t="s">
+      <c r="A232" s="7" t="s">
         <v>2107</v>
       </c>
+      <c r="B232" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>2112</v>
+      </c>
       <c r="H232" t="s">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="I232" t="s">
-        <v>2103</v>
+        <v>2114</v>
       </c>
       <c r="J232" t="s">
-        <v>2103</v>
+        <v>2115</v>
       </c>
       <c r="K232" t="s">
-        <v>2103</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>2108</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>2112</v>
+      <c r="A233" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>2121</v>
       </c>
       <c r="H233" t="s">
-        <v>2108</v>
+        <v>2122</v>
       </c>
       <c r="I233" t="s">
-        <v>2108</v>
+        <v>2123</v>
       </c>
       <c r="J233" t="s">
-        <v>2108</v>
+        <v>2124</v>
       </c>
       <c r="K233" t="s">
-        <v>2108</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>2116</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>2117</v>
+      <c r="A234" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>2130</v>
       </c>
       <c r="H234" t="s">
-        <v>2113</v>
+        <v>2131</v>
       </c>
       <c r="I234" t="s">
-        <v>2113</v>
+        <v>2132</v>
       </c>
       <c r="J234" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
       <c r="K234" t="s">
-        <v>2113</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G235" s="2" t="s">
+      <c r="A235" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>963</v>
       </c>
       <c r="H235" t="s">
-        <v>2118</v>
+        <v>2139</v>
       </c>
       <c r="I235" t="s">
-        <v>2118</v>
+        <v>2140</v>
       </c>
       <c r="J235" t="s">
-        <v>2118</v>
+        <v>966</v>
       </c>
       <c r="K235" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5">
-      <c r="C236" s="8"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="H236" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I236" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="12" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H237" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I237" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J237" s="12" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K237" s="12" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="10" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H238" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I238" t="s">
+        <v>2168</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>2169</v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="12" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H239" t="s">
+        <v>2177</v>
+      </c>
+      <c r="I239" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J239" s="12" t="s">
+        <v>2179</v>
+      </c>
+      <c r="K239" s="12" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
